--- a/w_2023.xlsx
+++ b/w_2023.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1847">
   <si>
-    <t>Number</t>
+    <t>Tahun</t>
   </si>
   <si>
     <t>Comments</t>
@@ -5585,12 +5585,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5600,22 +5600,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5628,6 +5642,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -5643,29 +5690,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -5675,7 +5699,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5691,36 +5723,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
@@ -5728,25 +5730,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5759,7 +5752,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5771,7 +5842,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5795,43 +5914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5843,103 +5932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5950,65 +5943,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6036,6 +5970,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6050,157 +6034,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -6544,10 +6536,10 @@
   <dimension ref="A1:B1990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1990"/>
+      <selection activeCell="B1990" sqref="B1990"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -8108,7 +8100,7 @@
       <c r="A195">
         <v>2023</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -10692,7 +10684,7 @@
       <c r="A518">
         <v>2023</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="1" t="s">
         <v>479</v>
       </c>
     </row>
@@ -12652,7 +12644,7 @@
       <c r="A763">
         <v>2023</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="B763" s="1" t="s">
         <v>712</v>
       </c>
     </row>
@@ -13204,7 +13196,7 @@
       <c r="A832">
         <v>2023</v>
       </c>
-      <c r="B832" s="2" t="s">
+      <c r="B832" s="1" t="s">
         <v>773</v>
       </c>
     </row>
@@ -13284,7 +13276,7 @@
       <c r="A842">
         <v>2023</v>
       </c>
-      <c r="B842" s="2" t="s">
+      <c r="B842" s="1" t="s">
         <v>781</v>
       </c>
     </row>
@@ -13964,7 +13956,7 @@
       <c r="A927">
         <v>2023</v>
       </c>
-      <c r="B927" s="2" t="s">
+      <c r="B927" s="1" t="s">
         <v>863</v>
       </c>
     </row>
@@ -13972,7 +13964,7 @@
       <c r="A928">
         <v>2023</v>
       </c>
-      <c r="B928" s="2" t="s">
+      <c r="B928" s="1" t="s">
         <v>864</v>
       </c>
     </row>
@@ -14316,7 +14308,7 @@
       <c r="A971">
         <v>2023</v>
       </c>
-      <c r="B971" s="2" t="s">
+      <c r="B971" s="1" t="s">
         <v>902</v>
       </c>
     </row>
@@ -14708,7 +14700,7 @@
       <c r="A1020">
         <v>2023</v>
       </c>
-      <c r="B1020" s="2" t="s">
+      <c r="B1020" s="1" t="s">
         <v>951</v>
       </c>
     </row>
@@ -15844,7 +15836,7 @@
       <c r="A1162">
         <v>2023</v>
       </c>
-      <c r="B1162" s="2" t="s">
+      <c r="B1162" s="1" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -18716,7 +18708,7 @@
       <c r="A1521">
         <v>2023</v>
       </c>
-      <c r="B1521" s="2" t="s">
+      <c r="B1521" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
@@ -21140,7 +21132,7 @@
       <c r="A1824">
         <v>2023</v>
       </c>
-      <c r="B1824" s="2" t="s">
+      <c r="B1824" s="1" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -21276,7 +21268,7 @@
       <c r="A1841">
         <v>2023</v>
       </c>
-      <c r="B1841" s="2" t="s">
+      <c r="B1841" s="1" t="s">
         <v>1703</v>
       </c>
     </row>
